--- a/Data/Results.xlsx
+++ b/Data/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siri/Documents/XCode/CompBio/FinalProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC52E29-6EAC-2944-A654-FE299B0AAB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA35E98C-64FF-D94C-A5FD-DB8F728413F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E5FD063B-D759-0941-8D56-54B8DDDEA895}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/Results.xlsx
+++ b/Data/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siri/Documents/XCode/CompBio/FinalProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA35E98C-64FF-D94C-A5FD-DB8F728413F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9007A696-F26D-2540-8EB9-50F63380F2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E5FD063B-D759-0941-8D56-54B8DDDEA895}"/>
   </bookViews>
@@ -16,14 +16,18 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$16:$D$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$J$16:$J$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$J$2:$J$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$16:$D$26</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$2:$D$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$J$16:$J$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$J$2:$J$12</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$31:$D$33</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$34:$D$36</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$G$34:$G$36</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$J$31:$J$33</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$34:$G$36</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$J$31:$J$33</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$31:$D$33</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$34:$D$36</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$34:$G$36</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$J$31:$J$33</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$31:$D$33</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$34:$D$36</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
   <si>
     <t>Strain</t>
   </si>
@@ -120,14 +124,17 @@
     <t>Error rate (mismatches / bases mapped)</t>
   </si>
   <si>
-    <t>DIFF</t>
+    <t>Error rate (mismatches / bases mapped) * 100</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,8 +142,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +163,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -158,11 +190,397 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -171,6 +589,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276301C0-031C-544A-9C66-2E0FEFDD2ABA}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,6 +1045,10 @@
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="14" max="15" width="18.5" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
@@ -1395,34 +1919,34 @@
         <v>2.4886580000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>23</v>
+      <c r="J30" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1445,13 +1969,13 @@
         <v>97425557.333333299</v>
       </c>
       <c r="H31">
-        <v>136.26666666666665</v>
+        <v>136.26666666666699</v>
       </c>
       <c r="I31">
         <v>84.033333333333317</v>
       </c>
       <c r="J31">
-        <v>1.1515022666666666E-2</v>
+        <v>1.1515022666666701E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1483,7 +2007,7 @@
         <v>5.9747476666666667E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1512,7 +2036,7 @@
         <v>2.851476E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1541,7 +2065,7 @@
         <v>1.0934020000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1570,7 +2094,7 @@
         <v>5.270564333333333E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1599,73 +2123,248 @@
         <v>2.4886580000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="37" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="1:22" ht="52" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="20"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="21"/>
+      <c r="R38" s="9"/>
+    </row>
+    <row r="39" spans="1:22" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="17"/>
+      <c r="M39" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="R39" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B38" t="s">
+      <c r="S39" s="24"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="10"/>
+    </row>
+    <row r="40" spans="1:22" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="18"/>
+      <c r="M40" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G38">
-        <f xml:space="preserve"> ABS((G31-G34)) / ( (G31+G34)/2)</f>
-        <v>1.3411298330034105</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ref="H38:J38" si="6" xml:space="preserve"> ABS((H31-H34)) / ( (H31+H34)/2)</f>
-        <v>1.1648338036455972</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="6"/>
-        <v>1.4785214785214627E-2</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="6"/>
-        <v>5.1761910322293041E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+      <c r="N40" s="34">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="O40" s="34">
+        <v>97425557.333333299</v>
+      </c>
+      <c r="P40" s="35">
+        <v>136.27000000000001</v>
+      </c>
+      <c r="Q40" s="36">
+        <v>84.03</v>
+      </c>
+      <c r="R40" s="37">
+        <v>1.1515022666666701E-2</v>
+      </c>
+      <c r="S40" s="23"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="11"/>
+    </row>
+    <row r="41" spans="1:22" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="18"/>
+      <c r="M41" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G39">
-        <f xml:space="preserve"> ABS((G32-G35)) / ( (G32+G35)/2)</f>
-        <v>0.15120763567949635</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ref="H39:J39" si="7" xml:space="preserve"> ABS((H32-H35)) / ( (H32+H35)/2)</f>
-        <v>1.3313464073969297</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="7"/>
-        <v>1.1594202898551713E-3</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="7"/>
-        <v>0.12524033718821387</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="N41" s="38">
+        <v>27</v>
+      </c>
+      <c r="O41" s="38">
+        <v>363543040</v>
+      </c>
+      <c r="P41" s="39">
+        <v>3052.8700000000003</v>
+      </c>
+      <c r="Q41" s="40">
+        <v>86.3</v>
+      </c>
+      <c r="R41" s="39">
+        <v>5.9747476666666667E-2</v>
+      </c>
+      <c r="S41" s="23"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="11"/>
+    </row>
+    <row r="42" spans="1:22" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="14"/>
+      <c r="M42" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G40">
-        <f xml:space="preserve"> ABS((G33-G36)) / ( (G33+G36)/2)</f>
-        <v>1.2340396215473011</v>
-      </c>
-      <c r="H40">
-        <f t="shared" ref="H40:J40" si="8" xml:space="preserve"> ABS((H33-H36)) / ( (H33+H36)/2)</f>
-        <v>1.1338485298125549</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="8"/>
-        <v>3.6159826432831068E-4</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="8"/>
-        <v>0.13588348157555588</v>
-      </c>
-    </row>
+      <c r="N42" s="41">
+        <v>92</v>
+      </c>
+      <c r="O42" s="41">
+        <v>90130026.666666672</v>
+      </c>
+      <c r="P42" s="42">
+        <v>862.41</v>
+      </c>
+      <c r="Q42" s="43">
+        <v>92.17</v>
+      </c>
+      <c r="R42" s="42">
+        <v>2.851476E-2</v>
+      </c>
+      <c r="S42" s="23"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="11"/>
+    </row>
+    <row r="43" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="15"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="8"/>
+    </row>
+    <row r="44" spans="1:22" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="28"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="50"/>
+    </row>
+    <row r="45" spans="1:22" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="28"/>
+      <c r="M45" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="S45" s="24"/>
+      <c r="T45" s="12"/>
+    </row>
+    <row r="46" spans="1:22" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="18"/>
+      <c r="M46" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="34">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="O46" s="34">
+        <v>494044885.33333302</v>
+      </c>
+      <c r="P46" s="35">
+        <v>35.959333333333333</v>
+      </c>
+      <c r="Q46" s="36">
+        <v>82.8</v>
+      </c>
+      <c r="R46" s="37">
+        <v>1.0934020000000001E-2</v>
+      </c>
+      <c r="S46" s="23"/>
+      <c r="T46" s="13"/>
+    </row>
+    <row r="47" spans="1:22" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="18"/>
+      <c r="M47" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="38">
+        <v>27</v>
+      </c>
+      <c r="O47" s="38">
+        <v>423009408</v>
+      </c>
+      <c r="P47" s="39">
+        <v>612.75900000000001</v>
+      </c>
+      <c r="Q47" s="40">
+        <v>86.199999999999989</v>
+      </c>
+      <c r="R47" s="39">
+        <v>5.270564333333333E-2</v>
+      </c>
+      <c r="S47" s="23"/>
+      <c r="T47" s="13"/>
+    </row>
+    <row r="48" spans="1:22" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="14"/>
+      <c r="M48" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48" s="41">
+        <v>92</v>
+      </c>
+      <c r="O48" s="41">
+        <v>380547200</v>
+      </c>
+      <c r="P48" s="42">
+        <v>238.35766666666666</v>
+      </c>
+      <c r="Q48" s="43">
+        <v>92.2</v>
+      </c>
+      <c r="R48" s="42">
+        <v>2.4886580000000002E-2</v>
+      </c>
+      <c r="S48" s="23"/>
+      <c r="T48" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="15"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+    </row>
+    <row r="50" spans="12:20" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>